--- a/Parallel_CPU_Complex_Problem/Python_Work/Parallel_CPU_Python_MultMul_Final/Parallel_CPU_Python_Complex_Execution_Charts_JW_052021.xlsx
+++ b/Parallel_CPU_Complex_Problem/Python_Work/Parallel_CPU_Python_MultMul_Final/Parallel_CPU_Python_Complex_Execution_Charts_JW_052021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="964"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="964" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Parallel_CPU_Execution_Results" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Parallel_CPU_Gemm_&amp;_Lib_4b" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -76,8 +77,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="173" formatCode="0.000000000000"/>
-    <numFmt numFmtId="176" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -143,9 +144,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,11 +520,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-982465168"/>
-        <c:axId val="-982457552"/>
+        <c:axId val="1791550960"/>
+        <c:axId val="1791551504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-982465168"/>
+        <c:axId val="1791550960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,12 +588,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-982457552"/>
+        <c:crossAx val="1791551504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-982457552"/>
+        <c:axId val="1791551504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,7 +658,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-982465168"/>
+        <c:crossAx val="1791550960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -965,8 +966,8 @@
         </c:dLbls>
         <c:gapWidth val="247"/>
         <c:overlap val="-27"/>
-        <c:axId val="-982455920"/>
-        <c:axId val="-982454288"/>
+        <c:axId val="1791548784"/>
+        <c:axId val="1791546064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1054,11 +1055,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-982463536"/>
-        <c:axId val="-982464080"/>
+        <c:axId val="1791548240"/>
+        <c:axId val="1791552592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-982455920"/>
+        <c:axId val="1791548784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,7 +1116,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-982454288"/>
+        <c:crossAx val="1791546064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1123,7 +1124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-982454288"/>
+        <c:axId val="1791546064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,12 +1175,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-982455920"/>
+        <c:crossAx val="1791548784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-982464080"/>
+        <c:axId val="1791552592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,12 +1217,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-982463536"/>
+        <c:crossAx val="1791548240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-982463536"/>
+        <c:axId val="1791548240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-982464080"/>
+        <c:crossAx val="1791552592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1683,12 +1684,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-694921088"/>
-        <c:axId val="-694924352"/>
+        <c:axId val="1791556400"/>
+        <c:axId val="1791554768"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-694921088"/>
+        <c:axId val="1791556400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,12 +1753,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-694924352"/>
+        <c:crossAx val="1791554768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-694924352"/>
+        <c:axId val="1791554768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,7 +1823,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-694921088"/>
+        <c:crossAx val="1791556400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2141,8 +2142,8 @@
         </c:dLbls>
         <c:gapWidth val="247"/>
         <c:overlap val="-27"/>
-        <c:axId val="-808054144"/>
-        <c:axId val="-808047072"/>
+        <c:axId val="1791552048"/>
+        <c:axId val="1791546608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2230,11 +2231,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-808045984"/>
-        <c:axId val="-808042720"/>
+        <c:axId val="1791549328"/>
+        <c:axId val="1791558032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-808054144"/>
+        <c:axId val="1791552048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2291,7 +2292,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-808047072"/>
+        <c:crossAx val="1791546608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2299,7 +2300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-808047072"/>
+        <c:axId val="1791546608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,12 +2351,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-808054144"/>
+        <c:crossAx val="1791552048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-808042720"/>
+        <c:axId val="1791558032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2392,12 +2393,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-808045984"/>
+        <c:crossAx val="1791549328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-808045984"/>
+        <c:axId val="1791549328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,7 +2408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-808042720"/>
+        <c:crossAx val="1791558032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2864,11 +2865,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-810689504"/>
-        <c:axId val="-810691136"/>
+        <c:axId val="1791553136"/>
+        <c:axId val="1791544432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-810689504"/>
+        <c:axId val="1791553136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2938,12 +2939,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-810691136"/>
+        <c:crossAx val="1791544432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-810691136"/>
+        <c:axId val="1791544432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3008,7 +3009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-810689504"/>
+        <c:crossAx val="1791553136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3321,8 +3322,8 @@
         </c:dLbls>
         <c:gapWidth val="247"/>
         <c:overlap val="-27"/>
-        <c:axId val="-688584480"/>
-        <c:axId val="-688586112"/>
+        <c:axId val="1791559120"/>
+        <c:axId val="1791553680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3410,11 +3411,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-688583392"/>
-        <c:axId val="-688585568"/>
+        <c:axId val="1791556944"/>
+        <c:axId val="1791554224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-688584480"/>
+        <c:axId val="1791559120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3471,7 +3472,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-688586112"/>
+        <c:crossAx val="1791553680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3479,7 +3480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-688586112"/>
+        <c:axId val="1791553680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,12 +3531,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-688584480"/>
+        <c:crossAx val="1791559120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-688585568"/>
+        <c:axId val="1791554224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3572,12 +3573,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-688583392"/>
+        <c:crossAx val="1791556944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-688583392"/>
+        <c:axId val="1791556944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3587,7 +3588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-688585568"/>
+        <c:crossAx val="1791554224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4044,11 +4045,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-821459440"/>
-        <c:axId val="-821461072"/>
+        <c:axId val="1791555312"/>
+        <c:axId val="1791555856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-821459440"/>
+        <c:axId val="1791555312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4112,12 +4113,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-821461072"/>
+        <c:crossAx val="1791555856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-821461072"/>
+        <c:axId val="1791555856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4182,7 +4183,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-821459440"/>
+        <c:crossAx val="1791555312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4502,8 +4503,8 @@
         </c:dLbls>
         <c:gapWidth val="247"/>
         <c:overlap val="-27"/>
-        <c:axId val="-809455024"/>
-        <c:axId val="-809450128"/>
+        <c:axId val="1791557488"/>
+        <c:axId val="1791558576"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4591,11 +4592,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-809455568"/>
-        <c:axId val="-809449584"/>
+        <c:axId val="1791544976"/>
+        <c:axId val="1791543888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-809455024"/>
+        <c:axId val="1791557488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4652,7 +4653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-809450128"/>
+        <c:crossAx val="1791558576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4660,7 +4661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-809450128"/>
+        <c:axId val="1791558576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4711,12 +4712,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-809455024"/>
+        <c:crossAx val="1791557488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-809449584"/>
+        <c:axId val="1791543888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4753,12 +4754,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-809455568"/>
+        <c:crossAx val="1791544976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-809455568"/>
+        <c:axId val="1791544976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4768,7 +4769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-809449584"/>
+        <c:crossAx val="1791543888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9518,7 +9519,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10030,7 +10031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
